--- a/output/quotes.xlsx
+++ b/output/quotes.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('Trump', 'PERSON'), ('Trump', 'ORG')]</t>
+          <t>[('Trump', 'ORG'), ('Trump', 'PERSON')]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[('Facebook', 'ORG'), ('Instagram', 'ORG')]</t>
+          <t>[('Instagram', 'ORG'), ('Facebook', 'ORG')]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('Trump', 'PERSON'), ('Trump', 'ORG')]</t>
+          <t>[('Trump', 'ORG'), ('Trump', 'PERSON')]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('D.C.', 'GPE'), ('Trump', 'PERSON'), ('Trump', 'ORG'), ('Washington', 'GPE')]</t>
+          <t>[('Trump', 'ORG'), ('Washington', 'GPE'), ('Trump', 'PERSON'), ('D.C.', 'GPE')]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[('Jennifer Grygiel', 'PERSON'), ('Grygiel', 'PERSON'), ('Syracuse University', 'ORG')]</t>
+          <t>[('Jennifer Grygiel', 'PERSON'), ('Syracuse University', 'ORG'), ('Grygiel', 'PERSON')]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('Trump', 'PERSON'), ('Trump', 'ORG')]</t>
+          <t>[('Trump', 'ORG'), ('Trump', 'PERSON')]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[('Trump', 'PERSON'), ('Trump', 'ORG')]</t>
+          <t>[('Trump', 'ORG'), ('Trump', 'PERSON')]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('Capitol', 'ORG'), ('the United States', 'GPE'), ('Capitol', 'FAC')]</t>
+          <t>[('the United States', 'GPE'), ('Capitol', 'FAC'), ('Capitol', 'ORG')]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('Canadians', 'NORP'), ('Washington', 'GPE')]</t>
+          <t>[('Washington', 'GPE'), ('Canadians', 'NORP')]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('Twitter', 'PERSON'), ('Trump', 'PERSON'), ('Twitter', 'ORG'), ('Trump', 'ORG')]</t>
+          <t>[('Trump', 'ORG'), ('Twitter', 'ORG'), ('Trump', 'PERSON'), ('Twitter', 'PERSON')]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[('Trump', 'PERSON'), ('Trump', 'ORG')]</t>
+          <t>[('Trump', 'ORG'), ('Trump', 'PERSON')]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[('Capitol', 'ORG'), ('the Oval Office', 'FAC'), ('Capitol', 'FAC')]</t>
+          <t>[('the Oval Office', 'FAC'), ('Capitol', 'FAC'), ('Capitol', 'ORG')]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[('Samoa', 'GPE'), ("Fiame Naomi Mata'afa", 'PERSON')]</t>
+          <t>[("Fiame Naomi Mata'afa", 'PERSON'), ('Samoa', 'GPE')]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[('Massey University', 'ORG'), ('Pacific', 'LOC'), ('Pacific', 'ORG'), ('Anna Powles', 'PERSON')]</t>
+          <t>[('Anna Powles', 'PERSON'), ('Pacific', 'LOC'), ('Massey University', 'ORG'), ('Pacific', 'ORG')]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[('Ukraine', 'GPE'), ("Vladimir Putin's", 'PERSON')]</t>
+          <t>[("Vladimir Putin's", 'PERSON'), ('Ukraine', 'GPE')]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[('Albanese', 'NORP'), ('Albanese', 'PERSON'), ('Anthony Albanese', 'PERSON')]</t>
+          <t>[('Anthony Albanese', 'PERSON'), ('Albanese', 'PERSON'), ('Albanese', 'NORP')]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[('China', 'GPE'), ('China Daily', 'ORG'), ('The China Daily', 'ORG')]</t>
+          <t>[('The China Daily', 'ORG'), ('China', 'GPE'), ('China Daily', 'ORG')]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[('China', 'GPE'), ('China Daily', 'ORG'), ('The China Daily', 'ORG')]</t>
+          <t>[('The China Daily', 'ORG'), ('China', 'GPE'), ('China Daily', 'ORG')]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[('Richard Marles', 'PERSON'), ('Wei Fenghe', 'PERSON'), ('Defence', 'ORG'), ('Chinese', 'NORP')]</t>
+          <t>[('Richard Marles', 'PERSON'), ('Chinese', 'NORP'), ('Defence', 'ORG'), ('Wei Fenghe', 'PERSON')]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[('Albanese', 'NORP'), ('Canberra', 'GPE'), ('Beijing', 'GPE'), ('Albanese', 'PERSON')]</t>
+          <t>[('Beijing', 'GPE'), ('Albanese', 'PERSON'), ('Albanese', 'NORP'), ('Canberra', 'GPE')]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[('China', 'GPE'), ('China Daily', 'ORG'), ('The China Daily', 'ORG')]</t>
+          <t>[('The China Daily', 'ORG'), ('China', 'GPE'), ('China Daily', 'ORG')]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[('Beijing', 'GPE'), ('Australia', 'GPE'), ('Australian', 'NORP')]</t>
+          <t>[('Australia', 'GPE'), ('Beijing', 'GPE'), ('Australian', 'NORP')]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[('John Garrick', 'PERSON'), ('Garrick', 'PERSON'), ('Charles Darwin University', 'ORG')]</t>
+          <t>[('Garrick', 'PERSON'), ('John Garrick', 'PERSON'), ('Charles Darwin University', 'ORG')]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[('Australia', 'GPE'), ('Chinese', 'NORP'), ('Labor', 'ORG'), ('the China Daily', 'ORG'), ('Australian', 'NORP'), ('China Daily', 'ORG'), ('China', 'GPE')]</t>
+          <t>[('Labor', 'ORG'), ('China Daily', 'ORG'), ('Australia', 'GPE'), ('Australian', 'NORP'), ('Chinese', 'NORP'), ('the China Daily', 'ORG'), ('China', 'GPE')]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[('China', 'GPE'), ('allied maritime surveillance operations', 'ORG'), ('US', 'GPE')]</t>
+          <t>[('US', 'GPE'), ('allied maritime surveillance operations', 'ORG'), ('China', 'GPE')]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[('Australia', 'GPE'), ('US', 'GPE'), ('the China Daily', 'ORG'), ('Beijing', 'GPE'), ('Australian', 'NORP'), ('China Daily', 'ORG'), ('China', 'GPE')]</t>
+          <t>[('Beijing', 'GPE'), ('China Daily', 'ORG'), ('US', 'GPE'), ('Australian', 'NORP'), ('Australia', 'GPE'), ('the China Daily', 'ORG'), ('China', 'GPE')]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[('Australia', 'GPE'), ('Taiwan', 'GPE'), ('Australian', 'NORP'), ('China', 'GPE'), ('Ukraine', 'GPE')]</t>
+          <t>[('Taiwan', 'GPE'), ('Ukraine', 'GPE'), ('Australia', 'GPE'), ('Australian', 'NORP'), ('China', 'GPE')]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[('China', 'GPE'), ('US', 'GPE')]</t>
+          <t>[('US', 'GPE'), ('China', 'GPE')]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
